--- a/published-data/fonds-solidarite/fds-2022-02-28/fonds-solidarite-volet-1-departemental-naf.xlsx
+++ b/published-data/fonds-solidarite/fds-2022-02-28/fonds-solidarite-volet-1-departemental-naf.xlsx
@@ -1879,13 +1879,13 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2140</v>
+        <v>2138</v>
       </c>
       <c r="D29" t="n">
         <v>502</v>
       </c>
       <c r="E29" t="n">
-        <v>5704737</v>
+        <v>5696821</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -9376,13 +9376,13 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>41182</v>
+        <v>41181</v>
       </c>
       <c r="D176" t="n">
         <v>5280</v>
       </c>
       <c r="E176" t="n">
-        <v>86414113</v>
+        <v>86409511</v>
       </c>
       <c r="F176" t="inlineStr">
         <is>
@@ -9427,13 +9427,13 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>55645</v>
+        <v>55643</v>
       </c>
       <c r="D177" t="n">
         <v>5882</v>
       </c>
       <c r="E177" t="n">
-        <v>356078556</v>
+        <v>356042159</v>
       </c>
       <c r="F177" t="inlineStr">
         <is>
@@ -9631,13 +9631,13 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>43578</v>
+        <v>43577</v>
       </c>
       <c r="D181" t="n">
-        <v>9380</v>
+        <v>9379</v>
       </c>
       <c r="E181" t="n">
-        <v>118513875</v>
+        <v>118494823</v>
       </c>
       <c r="F181" t="inlineStr">
         <is>
@@ -9835,13 +9835,13 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>29866</v>
+        <v>29863</v>
       </c>
       <c r="D185" t="n">
         <v>3705</v>
       </c>
       <c r="E185" t="n">
-        <v>96334763</v>
+        <v>96323982</v>
       </c>
       <c r="F185" t="inlineStr">
         <is>
@@ -17587,13 +17587,13 @@
         </is>
       </c>
       <c r="C337" t="n">
-        <v>10923</v>
+        <v>10921</v>
       </c>
       <c r="D337" t="n">
         <v>2602</v>
       </c>
       <c r="E337" t="n">
-        <v>33027628</v>
+        <v>33027556</v>
       </c>
       <c r="F337" t="inlineStr">
         <is>
@@ -21922,13 +21922,13 @@
         </is>
       </c>
       <c r="C422" t="n">
-        <v>2497</v>
+        <v>2496</v>
       </c>
       <c r="D422" t="n">
         <v>384</v>
       </c>
       <c r="E422" t="n">
-        <v>5975005</v>
+        <v>5969258</v>
       </c>
       <c r="F422" t="inlineStr">
         <is>
@@ -26053,13 +26053,13 @@
         </is>
       </c>
       <c r="C503" t="n">
-        <v>12800</v>
+        <v>12799</v>
       </c>
       <c r="D503" t="n">
         <v>1454</v>
       </c>
       <c r="E503" t="n">
-        <v>90752095</v>
+        <v>90751495</v>
       </c>
       <c r="F503" t="inlineStr">
         <is>
@@ -27685,13 +27685,13 @@
         </is>
       </c>
       <c r="C535" t="n">
-        <v>7068</v>
+        <v>7067</v>
       </c>
       <c r="D535" t="n">
         <v>717</v>
       </c>
       <c r="E535" t="n">
-        <v>32789456</v>
+        <v>32784080</v>
       </c>
       <c r="F535" t="inlineStr">
         <is>
@@ -29623,13 +29623,13 @@
         </is>
       </c>
       <c r="C573" t="n">
-        <v>4679</v>
+        <v>4678</v>
       </c>
       <c r="D573" t="n">
         <v>1034</v>
       </c>
       <c r="E573" t="n">
-        <v>8728799</v>
+        <v>8722830</v>
       </c>
       <c r="F573" t="inlineStr">
         <is>
@@ -29878,13 +29878,13 @@
         </is>
       </c>
       <c r="C578" t="n">
-        <v>12264</v>
+        <v>12263</v>
       </c>
       <c r="D578" t="n">
         <v>1514</v>
       </c>
       <c r="E578" t="n">
-        <v>38055888</v>
+        <v>38049040</v>
       </c>
       <c r="F578" t="inlineStr">
         <is>
@@ -31459,13 +31459,13 @@
         </is>
       </c>
       <c r="C609" t="n">
-        <v>3405</v>
+        <v>3404</v>
       </c>
       <c r="D609" t="n">
         <v>699</v>
       </c>
       <c r="E609" t="n">
-        <v>18087189</v>
+        <v>18045989</v>
       </c>
       <c r="F609" t="inlineStr">
         <is>
@@ -35947,13 +35947,13 @@
         </is>
       </c>
       <c r="C697" t="n">
-        <v>5909</v>
+        <v>5908</v>
       </c>
       <c r="D697" t="n">
         <v>1238</v>
       </c>
       <c r="E697" t="n">
-        <v>11624445</v>
+        <v>11622945</v>
       </c>
       <c r="F697" t="inlineStr">
         <is>
@@ -36151,13 +36151,13 @@
         </is>
       </c>
       <c r="C701" t="n">
-        <v>17128</v>
+        <v>17127</v>
       </c>
       <c r="D701" t="n">
         <v>3338</v>
       </c>
       <c r="E701" t="n">
-        <v>37534002</v>
+        <v>37513971</v>
       </c>
       <c r="F701" t="inlineStr">
         <is>
@@ -39007,13 +39007,13 @@
         </is>
       </c>
       <c r="C757" t="n">
-        <v>26757</v>
+        <v>26756</v>
       </c>
       <c r="D757" t="n">
         <v>5538</v>
       </c>
       <c r="E757" t="n">
-        <v>77251462</v>
+        <v>77241462</v>
       </c>
       <c r="F757" t="inlineStr">
         <is>
@@ -39568,13 +39568,13 @@
         </is>
       </c>
       <c r="C768" t="n">
-        <v>12343</v>
+        <v>12342</v>
       </c>
       <c r="D768" t="n">
-        <v>2903</v>
+        <v>2902</v>
       </c>
       <c r="E768" t="n">
-        <v>34202605</v>
+        <v>34199625</v>
       </c>
       <c r="F768" t="inlineStr">
         <is>
@@ -39670,13 +39670,13 @@
         </is>
       </c>
       <c r="C770" t="n">
-        <v>14067</v>
+        <v>14066</v>
       </c>
       <c r="D770" t="n">
         <v>1609</v>
       </c>
       <c r="E770" t="n">
-        <v>82782344</v>
+        <v>82772344</v>
       </c>
       <c r="F770" t="inlineStr">
         <is>
@@ -40741,13 +40741,13 @@
         </is>
       </c>
       <c r="C791" t="n">
-        <v>8917</v>
+        <v>8916</v>
       </c>
       <c r="D791" t="n">
         <v>1837</v>
       </c>
       <c r="E791" t="n">
-        <v>28076141</v>
+        <v>28070887</v>
       </c>
       <c r="F791" t="inlineStr">
         <is>
@@ -42118,13 +42118,13 @@
         </is>
       </c>
       <c r="C818" t="n">
-        <v>18659</v>
+        <v>18656</v>
       </c>
       <c r="D818" t="n">
         <v>4376</v>
       </c>
       <c r="E818" t="n">
-        <v>59741617</v>
+        <v>59690428</v>
       </c>
       <c r="F818" t="inlineStr">
         <is>
@@ -43852,13 +43852,13 @@
         </is>
       </c>
       <c r="C852" t="n">
-        <v>108387</v>
+        <v>108382</v>
       </c>
       <c r="D852" t="n">
         <v>19709</v>
       </c>
       <c r="E852" t="n">
-        <v>555138438</v>
+        <v>555091264</v>
       </c>
       <c r="F852" t="inlineStr">
         <is>
@@ -43954,13 +43954,13 @@
         </is>
       </c>
       <c r="C854" t="n">
-        <v>181793</v>
+        <v>181789</v>
       </c>
       <c r="D854" t="n">
         <v>17483</v>
       </c>
       <c r="E854" t="n">
-        <v>1642006748</v>
+        <v>1641982489</v>
       </c>
       <c r="F854" t="inlineStr">
         <is>
@@ -44005,13 +44005,13 @@
         </is>
       </c>
       <c r="C855" t="n">
-        <v>59921</v>
+        <v>59920</v>
       </c>
       <c r="D855" t="n">
         <v>9807</v>
       </c>
       <c r="E855" t="n">
-        <v>284275770</v>
+        <v>284265770</v>
       </c>
       <c r="F855" t="inlineStr">
         <is>
@@ -44158,13 +44158,13 @@
         </is>
       </c>
       <c r="C858" t="n">
-        <v>183615</v>
+        <v>183614</v>
       </c>
       <c r="D858" t="n">
         <v>35374</v>
       </c>
       <c r="E858" t="n">
-        <v>549590298</v>
+        <v>549589698</v>
       </c>
       <c r="F858" t="inlineStr">
         <is>
@@ -44209,13 +44209,13 @@
         </is>
       </c>
       <c r="C859" t="n">
-        <v>51187</v>
+        <v>51182</v>
       </c>
       <c r="D859" t="n">
         <v>6428</v>
       </c>
       <c r="E859" t="n">
-        <v>417793675</v>
+        <v>417540925</v>
       </c>
       <c r="F859" t="inlineStr">
         <is>
@@ -44260,13 +44260,13 @@
         </is>
       </c>
       <c r="C860" t="n">
-        <v>34625</v>
+        <v>34623</v>
       </c>
       <c r="D860" t="n">
         <v>5555</v>
       </c>
       <c r="E860" t="n">
-        <v>69539128</v>
+        <v>69528022</v>
       </c>
       <c r="F860" t="inlineStr">
         <is>
@@ -44362,13 +44362,13 @@
         </is>
       </c>
       <c r="C862" t="n">
-        <v>114750</v>
+        <v>114746</v>
       </c>
       <c r="D862" t="n">
         <v>14324</v>
       </c>
       <c r="E862" t="n">
-        <v>415143644</v>
+        <v>415113840</v>
       </c>
       <c r="F862" t="inlineStr">
         <is>
@@ -44413,13 +44413,13 @@
         </is>
       </c>
       <c r="C863" t="n">
-        <v>48455</v>
+        <v>48454</v>
       </c>
       <c r="D863" t="n">
         <v>8874</v>
       </c>
       <c r="E863" t="n">
-        <v>131089020</v>
+        <v>131087328</v>
       </c>
       <c r="F863" t="inlineStr">
         <is>
@@ -45637,13 +45637,13 @@
         </is>
       </c>
       <c r="C887" t="n">
-        <v>127419</v>
+        <v>127418</v>
       </c>
       <c r="D887" t="n">
         <v>13771</v>
       </c>
       <c r="E887" t="n">
-        <v>277193745</v>
+        <v>277190260</v>
       </c>
       <c r="F887" t="inlineStr">
         <is>
@@ -46453,13 +46453,13 @@
         </is>
       </c>
       <c r="C903" t="n">
-        <v>26073</v>
+        <v>26072</v>
       </c>
       <c r="D903" t="n">
         <v>5586</v>
       </c>
       <c r="E903" t="n">
-        <v>116830959</v>
+        <v>116769994</v>
       </c>
       <c r="F903" t="inlineStr">
         <is>
@@ -46504,13 +46504,13 @@
         </is>
       </c>
       <c r="C904" t="n">
-        <v>75215</v>
+        <v>75214</v>
       </c>
       <c r="D904" t="n">
         <v>8098</v>
       </c>
       <c r="E904" t="n">
-        <v>168562082</v>
+        <v>168560066</v>
       </c>
       <c r="F904" t="inlineStr">
         <is>
@@ -48697,13 +48697,13 @@
         </is>
       </c>
       <c r="C947" t="n">
-        <v>13812</v>
+        <v>13811</v>
       </c>
       <c r="D947" t="n">
         <v>1801</v>
       </c>
       <c r="E947" t="n">
-        <v>45886151</v>
+        <v>45874010</v>
       </c>
       <c r="F947" t="inlineStr">
         <is>
@@ -48850,13 +48850,13 @@
         </is>
       </c>
       <c r="C950" t="n">
-        <v>6444</v>
+        <v>6443</v>
       </c>
       <c r="D950" t="n">
         <v>1658</v>
       </c>
       <c r="E950" t="n">
-        <v>12761396</v>
+        <v>12759896</v>
       </c>
       <c r="F950" t="inlineStr">
         <is>
@@ -49717,13 +49717,13 @@
         </is>
       </c>
       <c r="C967" t="n">
-        <v>4083</v>
+        <v>4082</v>
       </c>
       <c r="D967" t="n">
         <v>848</v>
       </c>
       <c r="E967" t="n">
-        <v>8781595</v>
+        <v>8780876</v>
       </c>
       <c r="F967" t="inlineStr">
         <is>
@@ -49921,13 +49921,13 @@
         </is>
       </c>
       <c r="C971" t="n">
-        <v>12776</v>
+        <v>12769</v>
       </c>
       <c r="D971" t="n">
         <v>2290</v>
       </c>
       <c r="E971" t="n">
-        <v>32128249</v>
+        <v>32112207</v>
       </c>
       <c r="F971" t="inlineStr">
         <is>
@@ -49972,13 +49972,13 @@
         </is>
       </c>
       <c r="C972" t="n">
-        <v>4642</v>
+        <v>4640</v>
       </c>
       <c r="D972" t="n">
         <v>728</v>
       </c>
       <c r="E972" t="n">
-        <v>11054908</v>
+        <v>11049190</v>
       </c>
       <c r="F972" t="inlineStr">
         <is>
@@ -50023,13 +50023,13 @@
         </is>
       </c>
       <c r="C973" t="n">
-        <v>10736</v>
+        <v>10727</v>
       </c>
       <c r="D973" t="n">
         <v>1314</v>
       </c>
       <c r="E973" t="n">
-        <v>41639457</v>
+        <v>41578823</v>
       </c>
       <c r="F973" t="inlineStr">
         <is>
@@ -50176,13 +50176,13 @@
         </is>
       </c>
       <c r="C976" t="n">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="D976" t="n">
         <v>313</v>
       </c>
       <c r="E976" t="n">
-        <v>3189944</v>
+        <v>3187444</v>
       </c>
       <c r="F976" t="inlineStr">
         <is>
@@ -50431,13 +50431,13 @@
         </is>
       </c>
       <c r="C981" t="n">
-        <v>3507</v>
+        <v>3505</v>
       </c>
       <c r="D981" t="n">
         <v>402</v>
       </c>
       <c r="E981" t="n">
-        <v>10616906</v>
+        <v>10616306</v>
       </c>
       <c r="F981" t="inlineStr">
         <is>
@@ -50482,13 +50482,13 @@
         </is>
       </c>
       <c r="C982" t="n">
-        <v>6102</v>
+        <v>6101</v>
       </c>
       <c r="D982" t="n">
         <v>1076</v>
       </c>
       <c r="E982" t="n">
-        <v>10897376</v>
+        <v>10896175</v>
       </c>
       <c r="F982" t="inlineStr">
         <is>
@@ -55327,13 +55327,13 @@
         </is>
       </c>
       <c r="C1077" t="n">
-        <v>9658</v>
+        <v>9657</v>
       </c>
       <c r="D1077" t="n">
         <v>1238</v>
       </c>
       <c r="E1077" t="n">
-        <v>30920989</v>
+        <v>30919551</v>
       </c>
       <c r="F1077" t="inlineStr">
         <is>
@@ -74554,13 +74554,13 @@
         </is>
       </c>
       <c r="C1454" t="n">
-        <v>19736</v>
+        <v>19735</v>
       </c>
       <c r="D1454" t="n">
         <v>2199</v>
       </c>
       <c r="E1454" t="n">
-        <v>115288492</v>
+        <v>115286992</v>
       </c>
       <c r="F1454" t="inlineStr">
         <is>
@@ -77155,13 +77155,13 @@
         </is>
       </c>
       <c r="C1505" t="n">
-        <v>33611</v>
+        <v>33610</v>
       </c>
       <c r="D1505" t="n">
         <v>3696</v>
       </c>
       <c r="E1505" t="n">
-        <v>215827902</v>
+        <v>215826402</v>
       </c>
       <c r="F1505" t="inlineStr">
         <is>
@@ -80674,13 +80674,13 @@
         </is>
       </c>
       <c r="C1574" t="n">
-        <v>2572</v>
+        <v>2570</v>
       </c>
       <c r="D1574" t="n">
         <v>663</v>
       </c>
       <c r="E1574" t="n">
-        <v>5019457</v>
+        <v>5018546</v>
       </c>
       <c r="F1574" t="inlineStr">
         <is>
@@ -82510,13 +82510,13 @@
         </is>
       </c>
       <c r="C1610" t="n">
-        <v>16135</v>
+        <v>16134</v>
       </c>
       <c r="D1610" t="n">
         <v>2431</v>
       </c>
       <c r="E1610" t="n">
-        <v>30026551</v>
+        <v>30024065</v>
       </c>
       <c r="F1610" t="inlineStr">
         <is>
@@ -82969,13 +82969,13 @@
         </is>
       </c>
       <c r="C1619" t="n">
-        <v>65666</v>
+        <v>65665</v>
       </c>
       <c r="D1619" t="n">
         <v>13319</v>
       </c>
       <c r="E1619" t="n">
-        <v>202412908</v>
+        <v>202411116</v>
       </c>
       <c r="F1619" t="inlineStr">
         <is>
@@ -83071,13 +83071,13 @@
         </is>
       </c>
       <c r="C1621" t="n">
-        <v>71804</v>
+        <v>71803</v>
       </c>
       <c r="D1621" t="n">
         <v>7475</v>
       </c>
       <c r="E1621" t="n">
-        <v>409895078</v>
+        <v>409893080</v>
       </c>
       <c r="F1621" t="inlineStr">
         <is>
@@ -85264,13 +85264,13 @@
         </is>
       </c>
       <c r="C1664" t="n">
-        <v>21699</v>
+        <v>21698</v>
       </c>
       <c r="D1664" t="n">
         <v>4732</v>
       </c>
       <c r="E1664" t="n">
-        <v>37889711</v>
+        <v>37887869</v>
       </c>
       <c r="F1664" t="inlineStr">
         <is>
@@ -86080,13 +86080,13 @@
         </is>
       </c>
       <c r="C1680" t="n">
-        <v>10211</v>
+        <v>10210</v>
       </c>
       <c r="D1680" t="n">
         <v>1170</v>
       </c>
       <c r="E1680" t="n">
-        <v>31323238</v>
+        <v>31313238</v>
       </c>
       <c r="F1680" t="inlineStr">
         <is>

--- a/published-data/fonds-solidarite/fds-2022-02-28/fonds-solidarite-volet-1-departemental-naf.xlsx
+++ b/published-data/fonds-solidarite/fds-2022-02-28/fonds-solidarite-volet-1-departemental-naf.xlsx
@@ -1879,13 +1879,13 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2138</v>
+        <v>2140</v>
       </c>
       <c r="D29" t="n">
         <v>502</v>
       </c>
       <c r="E29" t="n">
-        <v>5696821</v>
+        <v>5704737</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -9376,13 +9376,13 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>41181</v>
+        <v>41182</v>
       </c>
       <c r="D176" t="n">
         <v>5280</v>
       </c>
       <c r="E176" t="n">
-        <v>86409511</v>
+        <v>86414113</v>
       </c>
       <c r="F176" t="inlineStr">
         <is>
@@ -9427,13 +9427,13 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>55643</v>
+        <v>55645</v>
       </c>
       <c r="D177" t="n">
         <v>5882</v>
       </c>
       <c r="E177" t="n">
-        <v>356042159</v>
+        <v>356078556</v>
       </c>
       <c r="F177" t="inlineStr">
         <is>
@@ -9631,13 +9631,13 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>43577</v>
+        <v>43578</v>
       </c>
       <c r="D181" t="n">
-        <v>9379</v>
+        <v>9380</v>
       </c>
       <c r="E181" t="n">
-        <v>118494823</v>
+        <v>118513875</v>
       </c>
       <c r="F181" t="inlineStr">
         <is>
@@ -9835,13 +9835,13 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>29863</v>
+        <v>29866</v>
       </c>
       <c r="D185" t="n">
         <v>3705</v>
       </c>
       <c r="E185" t="n">
-        <v>96323982</v>
+        <v>96334763</v>
       </c>
       <c r="F185" t="inlineStr">
         <is>
@@ -17587,13 +17587,13 @@
         </is>
       </c>
       <c r="C337" t="n">
-        <v>10921</v>
+        <v>10923</v>
       </c>
       <c r="D337" t="n">
         <v>2602</v>
       </c>
       <c r="E337" t="n">
-        <v>33027556</v>
+        <v>33027628</v>
       </c>
       <c r="F337" t="inlineStr">
         <is>
@@ -21922,13 +21922,13 @@
         </is>
       </c>
       <c r="C422" t="n">
-        <v>2496</v>
+        <v>2497</v>
       </c>
       <c r="D422" t="n">
         <v>384</v>
       </c>
       <c r="E422" t="n">
-        <v>5969258</v>
+        <v>5975005</v>
       </c>
       <c r="F422" t="inlineStr">
         <is>
@@ -26053,13 +26053,13 @@
         </is>
       </c>
       <c r="C503" t="n">
-        <v>12799</v>
+        <v>12800</v>
       </c>
       <c r="D503" t="n">
         <v>1454</v>
       </c>
       <c r="E503" t="n">
-        <v>90751495</v>
+        <v>90752095</v>
       </c>
       <c r="F503" t="inlineStr">
         <is>
@@ -27685,13 +27685,13 @@
         </is>
       </c>
       <c r="C535" t="n">
-        <v>7067</v>
+        <v>7068</v>
       </c>
       <c r="D535" t="n">
         <v>717</v>
       </c>
       <c r="E535" t="n">
-        <v>32784080</v>
+        <v>32789456</v>
       </c>
       <c r="F535" t="inlineStr">
         <is>
@@ -29623,13 +29623,13 @@
         </is>
       </c>
       <c r="C573" t="n">
-        <v>4678</v>
+        <v>4679</v>
       </c>
       <c r="D573" t="n">
         <v>1034</v>
       </c>
       <c r="E573" t="n">
-        <v>8722830</v>
+        <v>8728799</v>
       </c>
       <c r="F573" t="inlineStr">
         <is>
@@ -29878,13 +29878,13 @@
         </is>
       </c>
       <c r="C578" t="n">
-        <v>12263</v>
+        <v>12264</v>
       </c>
       <c r="D578" t="n">
         <v>1514</v>
       </c>
       <c r="E578" t="n">
-        <v>38049040</v>
+        <v>38055888</v>
       </c>
       <c r="F578" t="inlineStr">
         <is>
@@ -31459,13 +31459,13 @@
         </is>
       </c>
       <c r="C609" t="n">
-        <v>3404</v>
+        <v>3405</v>
       </c>
       <c r="D609" t="n">
         <v>699</v>
       </c>
       <c r="E609" t="n">
-        <v>18045989</v>
+        <v>18087189</v>
       </c>
       <c r="F609" t="inlineStr">
         <is>
@@ -35947,13 +35947,13 @@
         </is>
       </c>
       <c r="C697" t="n">
-        <v>5908</v>
+        <v>5909</v>
       </c>
       <c r="D697" t="n">
         <v>1238</v>
       </c>
       <c r="E697" t="n">
-        <v>11622945</v>
+        <v>11624445</v>
       </c>
       <c r="F697" t="inlineStr">
         <is>
@@ -36151,13 +36151,13 @@
         </is>
       </c>
       <c r="C701" t="n">
-        <v>17127</v>
+        <v>17128</v>
       </c>
       <c r="D701" t="n">
         <v>3338</v>
       </c>
       <c r="E701" t="n">
-        <v>37513971</v>
+        <v>37534002</v>
       </c>
       <c r="F701" t="inlineStr">
         <is>
@@ -39007,13 +39007,13 @@
         </is>
       </c>
       <c r="C757" t="n">
-        <v>26756</v>
+        <v>26757</v>
       </c>
       <c r="D757" t="n">
         <v>5538</v>
       </c>
       <c r="E757" t="n">
-        <v>77241462</v>
+        <v>77251462</v>
       </c>
       <c r="F757" t="inlineStr">
         <is>
@@ -39568,13 +39568,13 @@
         </is>
       </c>
       <c r="C768" t="n">
-        <v>12342</v>
+        <v>12343</v>
       </c>
       <c r="D768" t="n">
-        <v>2902</v>
+        <v>2903</v>
       </c>
       <c r="E768" t="n">
-        <v>34199625</v>
+        <v>34202605</v>
       </c>
       <c r="F768" t="inlineStr">
         <is>
@@ -39670,13 +39670,13 @@
         </is>
       </c>
       <c r="C770" t="n">
-        <v>14066</v>
+        <v>14067</v>
       </c>
       <c r="D770" t="n">
         <v>1609</v>
       </c>
       <c r="E770" t="n">
-        <v>82772344</v>
+        <v>82782344</v>
       </c>
       <c r="F770" t="inlineStr">
         <is>
@@ -40741,13 +40741,13 @@
         </is>
       </c>
       <c r="C791" t="n">
-        <v>8916</v>
+        <v>8917</v>
       </c>
       <c r="D791" t="n">
         <v>1837</v>
       </c>
       <c r="E791" t="n">
-        <v>28070887</v>
+        <v>28076141</v>
       </c>
       <c r="F791" t="inlineStr">
         <is>
@@ -42118,13 +42118,13 @@
         </is>
       </c>
       <c r="C818" t="n">
-        <v>18656</v>
+        <v>18659</v>
       </c>
       <c r="D818" t="n">
         <v>4376</v>
       </c>
       <c r="E818" t="n">
-        <v>59690428</v>
+        <v>59741617</v>
       </c>
       <c r="F818" t="inlineStr">
         <is>
@@ -43852,13 +43852,13 @@
         </is>
       </c>
       <c r="C852" t="n">
-        <v>108382</v>
+        <v>108387</v>
       </c>
       <c r="D852" t="n">
         <v>19709</v>
       </c>
       <c r="E852" t="n">
-        <v>555091264</v>
+        <v>555138438</v>
       </c>
       <c r="F852" t="inlineStr">
         <is>
@@ -43954,13 +43954,13 @@
         </is>
       </c>
       <c r="C854" t="n">
-        <v>181789</v>
+        <v>181793</v>
       </c>
       <c r="D854" t="n">
         <v>17483</v>
       </c>
       <c r="E854" t="n">
-        <v>1641982489</v>
+        <v>1642006748</v>
       </c>
       <c r="F854" t="inlineStr">
         <is>
@@ -44005,13 +44005,13 @@
         </is>
       </c>
       <c r="C855" t="n">
-        <v>59920</v>
+        <v>59921</v>
       </c>
       <c r="D855" t="n">
         <v>9807</v>
       </c>
       <c r="E855" t="n">
-        <v>284265770</v>
+        <v>284275770</v>
       </c>
       <c r="F855" t="inlineStr">
         <is>
@@ -44158,13 +44158,13 @@
         </is>
       </c>
       <c r="C858" t="n">
-        <v>183614</v>
+        <v>183615</v>
       </c>
       <c r="D858" t="n">
         <v>35374</v>
       </c>
       <c r="E858" t="n">
-        <v>549589698</v>
+        <v>549590298</v>
       </c>
       <c r="F858" t="inlineStr">
         <is>
@@ -44209,13 +44209,13 @@
         </is>
       </c>
       <c r="C859" t="n">
-        <v>51182</v>
+        <v>51187</v>
       </c>
       <c r="D859" t="n">
         <v>6428</v>
       </c>
       <c r="E859" t="n">
-        <v>417540925</v>
+        <v>417793675</v>
       </c>
       <c r="F859" t="inlineStr">
         <is>
@@ -44260,13 +44260,13 @@
         </is>
       </c>
       <c r="C860" t="n">
-        <v>34623</v>
+        <v>34625</v>
       </c>
       <c r="D860" t="n">
         <v>5555</v>
       </c>
       <c r="E860" t="n">
-        <v>69528022</v>
+        <v>69539128</v>
       </c>
       <c r="F860" t="inlineStr">
         <is>
@@ -44362,13 +44362,13 @@
         </is>
       </c>
       <c r="C862" t="n">
-        <v>114746</v>
+        <v>114750</v>
       </c>
       <c r="D862" t="n">
         <v>14324</v>
       </c>
       <c r="E862" t="n">
-        <v>415113840</v>
+        <v>415143644</v>
       </c>
       <c r="F862" t="inlineStr">
         <is>
@@ -44413,13 +44413,13 @@
         </is>
       </c>
       <c r="C863" t="n">
-        <v>48454</v>
+        <v>48455</v>
       </c>
       <c r="D863" t="n">
         <v>8874</v>
       </c>
       <c r="E863" t="n">
-        <v>131087328</v>
+        <v>131089020</v>
       </c>
       <c r="F863" t="inlineStr">
         <is>
@@ -45637,13 +45637,13 @@
         </is>
       </c>
       <c r="C887" t="n">
-        <v>127418</v>
+        <v>127419</v>
       </c>
       <c r="D887" t="n">
         <v>13771</v>
       </c>
       <c r="E887" t="n">
-        <v>277190260</v>
+        <v>277193745</v>
       </c>
       <c r="F887" t="inlineStr">
         <is>
@@ -46453,13 +46453,13 @@
         </is>
       </c>
       <c r="C903" t="n">
-        <v>26072</v>
+        <v>26073</v>
       </c>
       <c r="D903" t="n">
         <v>5586</v>
       </c>
       <c r="E903" t="n">
-        <v>116769994</v>
+        <v>116830959</v>
       </c>
       <c r="F903" t="inlineStr">
         <is>
@@ -46504,13 +46504,13 @@
         </is>
       </c>
       <c r="C904" t="n">
-        <v>75214</v>
+        <v>75215</v>
       </c>
       <c r="D904" t="n">
         <v>8098</v>
       </c>
       <c r="E904" t="n">
-        <v>168560066</v>
+        <v>168562082</v>
       </c>
       <c r="F904" t="inlineStr">
         <is>
@@ -48697,13 +48697,13 @@
         </is>
       </c>
       <c r="C947" t="n">
-        <v>13811</v>
+        <v>13812</v>
       </c>
       <c r="D947" t="n">
         <v>1801</v>
       </c>
       <c r="E947" t="n">
-        <v>45874010</v>
+        <v>45886151</v>
       </c>
       <c r="F947" t="inlineStr">
         <is>
@@ -48850,13 +48850,13 @@
         </is>
       </c>
       <c r="C950" t="n">
-        <v>6443</v>
+        <v>6444</v>
       </c>
       <c r="D950" t="n">
         <v>1658</v>
       </c>
       <c r="E950" t="n">
-        <v>12759896</v>
+        <v>12761396</v>
       </c>
       <c r="F950" t="inlineStr">
         <is>
@@ -49717,13 +49717,13 @@
         </is>
       </c>
       <c r="C967" t="n">
-        <v>4082</v>
+        <v>4083</v>
       </c>
       <c r="D967" t="n">
         <v>848</v>
       </c>
       <c r="E967" t="n">
-        <v>8780876</v>
+        <v>8781595</v>
       </c>
       <c r="F967" t="inlineStr">
         <is>
@@ -49921,13 +49921,13 @@
         </is>
       </c>
       <c r="C971" t="n">
-        <v>12769</v>
+        <v>12776</v>
       </c>
       <c r="D971" t="n">
         <v>2290</v>
       </c>
       <c r="E971" t="n">
-        <v>32112207</v>
+        <v>32128249</v>
       </c>
       <c r="F971" t="inlineStr">
         <is>
@@ -49972,13 +49972,13 @@
         </is>
       </c>
       <c r="C972" t="n">
-        <v>4640</v>
+        <v>4642</v>
       </c>
       <c r="D972" t="n">
         <v>728</v>
       </c>
       <c r="E972" t="n">
-        <v>11049190</v>
+        <v>11054908</v>
       </c>
       <c r="F972" t="inlineStr">
         <is>
@@ -50023,13 +50023,13 @@
         </is>
       </c>
       <c r="C973" t="n">
-        <v>10727</v>
+        <v>10736</v>
       </c>
       <c r="D973" t="n">
         <v>1314</v>
       </c>
       <c r="E973" t="n">
-        <v>41578823</v>
+        <v>41639457</v>
       </c>
       <c r="F973" t="inlineStr">
         <is>
@@ -50176,13 +50176,13 @@
         </is>
       </c>
       <c r="C976" t="n">
-        <v>1515</v>
+        <v>1516</v>
       </c>
       <c r="D976" t="n">
         <v>313</v>
       </c>
       <c r="E976" t="n">
-        <v>3187444</v>
+        <v>3189944</v>
       </c>
       <c r="F976" t="inlineStr">
         <is>
@@ -50431,13 +50431,13 @@
         </is>
       </c>
       <c r="C981" t="n">
-        <v>3505</v>
+        <v>3507</v>
       </c>
       <c r="D981" t="n">
         <v>402</v>
       </c>
       <c r="E981" t="n">
-        <v>10616306</v>
+        <v>10616906</v>
       </c>
       <c r="F981" t="inlineStr">
         <is>
@@ -50482,13 +50482,13 @@
         </is>
       </c>
       <c r="C982" t="n">
-        <v>6101</v>
+        <v>6102</v>
       </c>
       <c r="D982" t="n">
         <v>1076</v>
       </c>
       <c r="E982" t="n">
-        <v>10896175</v>
+        <v>10897376</v>
       </c>
       <c r="F982" t="inlineStr">
         <is>
@@ -55327,13 +55327,13 @@
         </is>
       </c>
       <c r="C1077" t="n">
-        <v>9657</v>
+        <v>9658</v>
       </c>
       <c r="D1077" t="n">
         <v>1238</v>
       </c>
       <c r="E1077" t="n">
-        <v>30919551</v>
+        <v>30920989</v>
       </c>
       <c r="F1077" t="inlineStr">
         <is>
@@ -74554,13 +74554,13 @@
         </is>
       </c>
       <c r="C1454" t="n">
-        <v>19735</v>
+        <v>19736</v>
       </c>
       <c r="D1454" t="n">
         <v>2199</v>
       </c>
       <c r="E1454" t="n">
-        <v>115286992</v>
+        <v>115288492</v>
       </c>
       <c r="F1454" t="inlineStr">
         <is>
@@ -77155,13 +77155,13 @@
         </is>
       </c>
       <c r="C1505" t="n">
-        <v>33610</v>
+        <v>33611</v>
       </c>
       <c r="D1505" t="n">
         <v>3696</v>
       </c>
       <c r="E1505" t="n">
-        <v>215826402</v>
+        <v>215827902</v>
       </c>
       <c r="F1505" t="inlineStr">
         <is>
@@ -80674,13 +80674,13 @@
         </is>
       </c>
       <c r="C1574" t="n">
-        <v>2570</v>
+        <v>2572</v>
       </c>
       <c r="D1574" t="n">
         <v>663</v>
       </c>
       <c r="E1574" t="n">
-        <v>5018546</v>
+        <v>5019457</v>
       </c>
       <c r="F1574" t="inlineStr">
         <is>
@@ -82510,13 +82510,13 @@
         </is>
       </c>
       <c r="C1610" t="n">
-        <v>16134</v>
+        <v>16135</v>
       </c>
       <c r="D1610" t="n">
         <v>2431</v>
       </c>
       <c r="E1610" t="n">
-        <v>30024065</v>
+        <v>30026551</v>
       </c>
       <c r="F1610" t="inlineStr">
         <is>
@@ -82969,13 +82969,13 @@
         </is>
       </c>
       <c r="C1619" t="n">
-        <v>65665</v>
+        <v>65666</v>
       </c>
       <c r="D1619" t="n">
         <v>13319</v>
       </c>
       <c r="E1619" t="n">
-        <v>202411116</v>
+        <v>202412908</v>
       </c>
       <c r="F1619" t="inlineStr">
         <is>
@@ -83071,13 +83071,13 @@
         </is>
       </c>
       <c r="C1621" t="n">
-        <v>71803</v>
+        <v>71804</v>
       </c>
       <c r="D1621" t="n">
         <v>7475</v>
       </c>
       <c r="E1621" t="n">
-        <v>409893080</v>
+        <v>409895078</v>
       </c>
       <c r="F1621" t="inlineStr">
         <is>
@@ -85264,13 +85264,13 @@
         </is>
       </c>
       <c r="C1664" t="n">
-        <v>21698</v>
+        <v>21699</v>
       </c>
       <c r="D1664" t="n">
         <v>4732</v>
       </c>
       <c r="E1664" t="n">
-        <v>37887869</v>
+        <v>37889711</v>
       </c>
       <c r="F1664" t="inlineStr">
         <is>
@@ -86080,13 +86080,13 @@
         </is>
       </c>
       <c r="C1680" t="n">
-        <v>10210</v>
+        <v>10211</v>
       </c>
       <c r="D1680" t="n">
         <v>1170</v>
       </c>
       <c r="E1680" t="n">
-        <v>31313238</v>
+        <v>31323238</v>
       </c>
       <c r="F1680" t="inlineStr">
         <is>
